--- a/问题记录/《项目问题记录表》-南京实施部 - 杨磊.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部 - 杨磊.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -71,6 +71,23 @@
   </si>
   <si>
     <t>联系肖明夜，肖明夜给了一个包，已经更新，4月16号商户会给反馈，是否还会出现。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0的账单没有问题，反结账直接买单就可决.
+2.0需要找肖明夜把账单改成未结账状态，检查折扣，如折扣有问题，给商家说好，用减免在结账，可解决问题。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交班和日结会出现账单实收金额与菜品实收汇总金额不一致，1.0与2.0都出现过.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -601,11 +621,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="40.5">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6"/>
@@ -633,6 +667,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/问题记录/《项目问题记录表》-南京实施部 - 杨磊.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部 - 杨磊.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>交班和日结会出现账单实收金额与菜品实收汇总金额不一致，1.0与2.0都出现过.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -527,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -641,11 +645,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" spans="1:6" s="11" customFormat="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="7"/>
